--- a/output/Combined_Docks_Consumption.xlsx
+++ b/output/Combined_Docks_Consumption.xlsx
@@ -12,63 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="19">
   <si>
     <t>GMLID</t>
   </si>
   <si>
-    <t>Electricity (KWH)</t>
+    <t>Electricity_KWH</t>
   </si>
   <si>
-    <t>Cold_Water (m3)</t>
+    <t>Cold_Water_m3</t>
   </si>
   <si>
-    <t>Hot_Water (m3)</t>
+    <t>Hot_Water_m3</t>
   </si>
   <si>
-    <t>Heat (MWH)</t>
+    <t>Heat_MWH</t>
   </si>
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>IGN_BATIMENT0000000113477385</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>November</t>
+    <t>IGN_BATIMENT0000000113477385</t>
   </si>
   <si>
     <t>IGN_BATIMENT0000000246490883</t>
@@ -171,10 +138,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>6787.0</v>
@@ -188,13 +158,16 @@
       <c r="E2" t="n">
         <v>78.69399999999999</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>5509.0</v>
@@ -208,13 +181,16 @@
       <c r="E3" t="n">
         <v>52.822</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="F3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>2587.0</v>
@@ -228,13 +204,16 @@
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>3298.0</v>
@@ -248,13 +227,16 @@
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>4159.0</v>
@@ -268,13 +250,16 @@
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
+      <c r="F6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>5954.0</v>
@@ -288,13 +273,16 @@
       <c r="E7" t="n">
         <v>25.872</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="F7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>7128.0</v>
@@ -308,13 +296,16 @@
       <c r="E8" t="n">
         <v>75.46000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
+      <c r="F8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>8597.0</v>
@@ -328,13 +319,16 @@
       <c r="E9" t="n">
         <v>107.80000000000001</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="F9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
         <v>10159.0</v>
@@ -348,13 +342,16 @@
       <c r="E10" t="n">
         <v>210.21</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
+      <c r="F10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
         <v>10850.0</v>
@@ -368,13 +365,16 @@
       <c r="E11" t="n">
         <v>203.742</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>9797.0</v>
@@ -388,13 +388,16 @@
       <c r="E12" t="n">
         <v>188.64999999999998</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
+      <c r="F12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
         <v>7598.0</v>
@@ -408,13 +411,16 @@
       <c r="E13" t="n">
         <v>134.75</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
+      <c r="F13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>7698.0</v>
@@ -428,13 +434,16 @@
       <c r="E14" t="n">
         <v>54.25000000000001</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
+      <c r="F14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
         <v>6654.0</v>
@@ -448,13 +457,16 @@
       <c r="E15" t="n">
         <v>32.550000000000004</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
+      <c r="F15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
         <v>3529.0</v>
@@ -468,13 +480,16 @@
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
+      <c r="F16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
         <v>4084.0</v>
@@ -488,13 +503,16 @@
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
+      <c r="F17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>5102.0</v>
@@ -508,13 +526,16 @@
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
-      <c r="F18" t="s">
-        <v>11</v>
+      <c r="F18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
         <v>6889.0</v>
@@ -528,13 +549,16 @@
       <c r="E19" t="n">
         <v>17.825</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>7969.0</v>
@@ -548,13 +572,16 @@
       <c r="E20" t="n">
         <v>62.0</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
+      <c r="F20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
         <v>9723.0</v>
@@ -568,13 +595,16 @@
       <c r="E21" t="n">
         <v>85.25</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
+      <c r="F21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
         <v>11387.0</v>
@@ -588,13 +618,16 @@
       <c r="E22" t="n">
         <v>155.0</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
+      <c r="F22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
         <v>11882.0</v>
@@ -608,13 +641,16 @@
       <c r="E23" t="n">
         <v>127.875</v>
       </c>
-      <c r="F23" t="s">
-        <v>16</v>
+      <c r="F23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
         <v>10697.0</v>
@@ -628,13 +664,16 @@
       <c r="E24" t="n">
         <v>124.0</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
+      <c r="F24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
         <v>8496.0</v>
@@ -648,13 +687,16 @@
       <c r="E25" t="n">
         <v>116.25</v>
       </c>
-      <c r="F25" t="s">
-        <v>18</v>
+      <c r="F25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
         <v>6954.0</v>
@@ -668,13 +710,16 @@
       <c r="E26" t="n">
         <v>54.809999999999995</v>
       </c>
-      <c r="F26" t="s">
-        <v>7</v>
+      <c r="F26" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
         <v>6389.0</v>
@@ -688,13 +733,16 @@
       <c r="E27" t="n">
         <v>34.019999999999996</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
+      <c r="F27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
         <v>2810.0</v>
@@ -708,13 +756,16 @@
       <c r="E28" t="n">
         <v>0.0</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
+      <c r="F28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
         <v>3385.0</v>
@@ -728,13 +779,16 @@
       <c r="E29" t="n">
         <v>0.0</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
+      <c r="F29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
         <v>4395.0</v>
@@ -748,13 +802,16 @@
       <c r="E30" t="n">
         <v>0.0</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
+      <c r="F30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
         <v>6128.0</v>
@@ -768,13 +825,16 @@
       <c r="E31" t="n">
         <v>20.79</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
         <v>7302.0</v>
@@ -788,13 +848,16 @@
       <c r="E32" t="n">
         <v>45.36</v>
       </c>
-      <c r="F32" t="s">
-        <v>13</v>
+      <c r="F32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B33" t="n">
         <v>8864.0</v>
@@ -808,13 +871,16 @@
       <c r="E33" t="n">
         <v>75.60000000000001</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
+      <c r="F33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
         <v>10459.0</v>
@@ -828,13 +894,16 @@
       <c r="E34" t="n">
         <v>139.85999999999999</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
+      <c r="F34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
         <v>10985.0</v>
@@ -848,13 +917,16 @@
       <c r="E35" t="n">
         <v>136.07999999999998</v>
       </c>
-      <c r="F35" t="s">
-        <v>16</v>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B36" t="n">
         <v>10069.0</v>
@@ -868,13 +940,16 @@
       <c r="E36" t="n">
         <v>136.07999999999998</v>
       </c>
-      <c r="F36" t="s">
-        <v>17</v>
+      <c r="F36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B37" t="n">
         <v>7885.0</v>
@@ -888,13 +963,16 @@
       <c r="E37" t="n">
         <v>113.39999999999999</v>
       </c>
-      <c r="F37" t="s">
-        <v>18</v>
+      <c r="F37" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
         <v>14358.0</v>
@@ -908,13 +986,16 @@
       <c r="E38" t="n">
         <v>82.9635</v>
       </c>
-      <c r="F38" t="s">
-        <v>7</v>
+      <c r="F38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
         <v>12112.0</v>
@@ -928,13 +1009,16 @@
       <c r="E39" t="n">
         <v>37.392</v>
       </c>
-      <c r="F39" t="s">
-        <v>8</v>
+      <c r="F39" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B40" t="n">
         <v>7287.0</v>
@@ -948,13 +1032,16 @@
       <c r="E40" t="n">
         <v>0.0</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
+      <c r="F40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
         <v>8628.0</v>
@@ -968,13 +1055,16 @@
       <c r="E41" t="n">
         <v>0.0</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
+      <c r="F41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
         <v>11359.0</v>
@@ -988,13 +1078,16 @@
       <c r="E42" t="n">
         <v>0.0</v>
       </c>
-      <c r="F42" t="s">
-        <v>11</v>
+      <c r="F42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
         <v>14269.0</v>
@@ -1008,13 +1101,16 @@
       <c r="E43" t="n">
         <v>31.5495</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
+      <c r="F43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B44" t="n">
         <v>16389.0</v>
@@ -1028,13 +1124,16 @@
       <c r="E44" t="n">
         <v>78.2895</v>
       </c>
-      <c r="F44" t="s">
-        <v>13</v>
+      <c r="F44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
         <v>19093.0</v>
@@ -1048,13 +1147,16 @@
       <c r="E45" t="n">
         <v>132.0405</v>
       </c>
-      <c r="F45" t="s">
-        <v>14</v>
+      <c r="F45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
         <v>22184.0</v>
@@ -1068,13 +1170,16 @@
       <c r="E46" t="n">
         <v>219.678</v>
       </c>
-      <c r="F46" t="s">
-        <v>15</v>
+      <c r="F46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B47" t="n">
         <v>23646.0</v>
@@ -1088,13 +1193,16 @@
       <c r="E47" t="n">
         <v>212.667</v>
       </c>
-      <c r="F47" t="s">
-        <v>16</v>
+      <c r="F47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B48" t="n">
         <v>21938.0</v>
@@ -1108,13 +1216,16 @@
       <c r="E48" t="n">
         <v>204.48749999999998</v>
       </c>
-      <c r="F48" t="s">
-        <v>17</v>
+      <c r="F48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B49" t="n">
         <v>17696.0</v>
@@ -1128,13 +1239,16 @@
       <c r="E49" t="n">
         <v>169.43249999999998</v>
       </c>
-      <c r="F49" t="s">
-        <v>18</v>
+      <c r="F49" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B50" t="n">
         <v>15421.0</v>
@@ -1148,13 +1262,16 @@
       <c r="E50" t="n">
         <v>138.50220000000002</v>
       </c>
-      <c r="F50" t="s">
-        <v>7</v>
+      <c r="F50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
         <v>13259.0</v>
@@ -1168,13 +1285,16 @@
       <c r="E51" t="n">
         <v>81.018</v>
       </c>
-      <c r="F51" t="s">
-        <v>8</v>
+      <c r="F51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B52" t="n">
         <v>7801.0</v>
@@ -1188,13 +1308,16 @@
       <c r="E52" t="n">
         <v>0.0</v>
       </c>
-      <c r="F52" t="s">
-        <v>9</v>
+      <c r="F52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
         <v>9602.0</v>
@@ -1208,13 +1331,16 @@
       <c r="E53" t="n">
         <v>0.0</v>
       </c>
-      <c r="F53" t="s">
-        <v>10</v>
+      <c r="F53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
         <v>12325.0</v>
@@ -1228,13 +1354,16 @@
       <c r="E54" t="n">
         <v>0.0</v>
       </c>
-      <c r="F54" t="s">
-        <v>11</v>
+      <c r="F54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
         <v>15212.0</v>
@@ -1248,13 +1377,16 @@
       <c r="E55" t="n">
         <v>60.184799999999996</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
+      <c r="F55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B56" t="n">
         <v>17060.0</v>
@@ -1268,13 +1400,16 @@
       <c r="E56" t="n">
         <v>125.385</v>
       </c>
-      <c r="F56" t="s">
-        <v>13</v>
+      <c r="F56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B57" t="n">
         <v>20098.0</v>
@@ -1288,13 +1423,16 @@
       <c r="E57" t="n">
         <v>216.048</v>
       </c>
-      <c r="F57" t="s">
-        <v>14</v>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B58" t="n">
         <v>23189.0</v>
@@ -1308,13 +1446,16 @@
       <c r="E58" t="n">
         <v>362.652</v>
       </c>
-      <c r="F58" t="s">
-        <v>15</v>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
         <v>24623.0</v>
@@ -1328,13 +1469,16 @@
       <c r="E59" t="n">
         <v>343.36199999999997</v>
       </c>
-      <c r="F59" t="s">
-        <v>16</v>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B60" t="n">
         <v>21903.0</v>
@@ -1348,13 +1492,16 @@
       <c r="E60" t="n">
         <v>322.14300000000003</v>
       </c>
-      <c r="F60" t="s">
-        <v>17</v>
+      <c r="F60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B61" t="n">
         <v>18769.0</v>
@@ -1368,13 +1515,16 @@
       <c r="E61" t="n">
         <v>279.705</v>
       </c>
-      <c r="F61" t="s">
-        <v>18</v>
+      <c r="F61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B62" t="n">
         <v>15682.0</v>
@@ -1388,13 +1538,16 @@
       <c r="E62" t="n">
         <v>107.78625000000001</v>
       </c>
-      <c r="F62" t="s">
-        <v>7</v>
+      <c r="F62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B63" t="n">
         <v>13597.0</v>
@@ -1408,13 +1561,16 @@
       <c r="E63" t="n">
         <v>59.52375</v>
       </c>
-      <c r="F63" t="s">
-        <v>8</v>
+      <c r="F63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B64" t="n">
         <v>8264.0</v>
@@ -1428,13 +1584,16 @@
       <c r="E64" t="n">
         <v>0.0</v>
       </c>
-      <c r="F64" t="s">
-        <v>9</v>
+      <c r="F64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B65" t="n">
         <v>9992.0</v>
@@ -1448,13 +1607,16 @@
       <c r="E65" t="n">
         <v>0.0</v>
       </c>
-      <c r="F65" t="s">
-        <v>10</v>
+      <c r="F65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B66" t="n">
         <v>12759.0</v>
@@ -1468,13 +1630,16 @@
       <c r="E66" t="n">
         <v>0.0</v>
       </c>
-      <c r="F66" t="s">
-        <v>11</v>
+      <c r="F66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B67" t="n">
         <v>15503.0</v>
@@ -1488,13 +1653,16 @@
       <c r="E67" t="n">
         <v>43.43625</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
+      <c r="F67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
         <v>17264.0</v>
@@ -1508,13 +1676,16 @@
       <c r="E68" t="n">
         <v>123.87375</v>
       </c>
-      <c r="F68" t="s">
-        <v>13</v>
+      <c r="F68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B69" t="n">
         <v>20264.0</v>
@@ -1528,13 +1699,16 @@
       <c r="E69" t="n">
         <v>168.91875</v>
       </c>
-      <c r="F69" t="s">
-        <v>14</v>
+      <c r="F69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B70" t="n">
         <v>23421.0</v>
@@ -1548,13 +1722,16 @@
       <c r="E70" t="n">
         <v>305.6625</v>
       </c>
-      <c r="F70" t="s">
-        <v>15</v>
+      <c r="F70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B71" t="n">
         <v>24856.0</v>
@@ -1568,13 +1745,16 @@
       <c r="E71" t="n">
         <v>292.7925</v>
       </c>
-      <c r="F71" t="s">
-        <v>16</v>
+      <c r="F71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B72" t="n">
         <v>22231.0</v>
@@ -1588,13 +1768,16 @@
       <c r="E72" t="n">
         <v>281.53125</v>
       </c>
-      <c r="F72" t="s">
-        <v>17</v>
+      <c r="F72" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B73" t="n">
         <v>19002.0</v>
@@ -1608,13 +1791,16 @@
       <c r="E73" t="n">
         <v>225.22500000000002</v>
       </c>
-      <c r="F73" t="s">
-        <v>18</v>
+      <c r="F73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B74" t="n">
         <v>13859.0</v>
@@ -1628,13 +1814,16 @@
       <c r="E74" t="n">
         <v>97.5384</v>
       </c>
-      <c r="F74" t="s">
-        <v>7</v>
+      <c r="F74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
         <v>11598.0</v>
@@ -1648,13 +1837,16 @@
       <c r="E75" t="n">
         <v>42.67305</v>
       </c>
-      <c r="F75" t="s">
-        <v>8</v>
+      <c r="F75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B76" t="n">
         <v>6921.0</v>
@@ -1668,13 +1860,16 @@
       <c r="E76" t="n">
         <v>0.0</v>
       </c>
-      <c r="F76" t="s">
-        <v>9</v>
+      <c r="F76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B77" t="n">
         <v>8169.0</v>
@@ -1688,13 +1883,16 @@
       <c r="E77" t="n">
         <v>0.0</v>
       </c>
-      <c r="F77" t="s">
-        <v>10</v>
+      <c r="F77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B78" t="n">
         <v>10759.0</v>
@@ -1708,13 +1906,16 @@
       <c r="E78" t="n">
         <v>0.0</v>
       </c>
-      <c r="F78" t="s">
-        <v>11</v>
+      <c r="F78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B79" t="n">
         <v>13864.0</v>
@@ -1728,13 +1929,16 @@
       <c r="E79" t="n">
         <v>37.25425</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
+      <c r="F79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B80" t="n">
         <v>15526.0</v>
@@ -1748,13 +1952,16 @@
       <c r="E80" t="n">
         <v>97.5384</v>
       </c>
-      <c r="F80" t="s">
-        <v>13</v>
+      <c r="F80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B81" t="n">
         <v>18529.0</v>
@@ -1768,13 +1975,16 @@
       <c r="E81" t="n">
         <v>155.7905</v>
       </c>
-      <c r="F81" t="s">
-        <v>14</v>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B82" t="n">
         <v>21789.0</v>
@@ -1788,13 +1998,16 @@
       <c r="E82" t="n">
         <v>250.61950000000002</v>
       </c>
-      <c r="F82" t="s">
-        <v>15</v>
+      <c r="F82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
         <v>23589.0</v>
@@ -1808,13 +2021,16 @@
       <c r="E83" t="n">
         <v>246.5554</v>
       </c>
-      <c r="F83" t="s">
-        <v>16</v>
+      <c r="F83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B84" t="n">
         <v>21498.0</v>
@@ -1828,13 +2044,16 @@
       <c r="E84" t="n">
         <v>237.0725</v>
       </c>
-      <c r="F84" t="s">
-        <v>17</v>
+      <c r="F84" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B85" t="n">
         <v>17059.0</v>
@@ -1848,13 +2067,16 @@
       <c r="E85" t="n">
         <v>189.65800000000002</v>
       </c>
-      <c r="F85" t="s">
-        <v>18</v>
+      <c r="F85" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B86" t="n">
         <v>12098.0</v>
@@ -1868,13 +2090,16 @@
       <c r="E86" t="n">
         <v>132.468</v>
       </c>
-      <c r="F86" t="s">
-        <v>7</v>
+      <c r="F86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B87" t="n">
         <v>11194.0</v>
@@ -1888,13 +2113,16 @@
       <c r="E87" t="n">
         <v>69.72</v>
       </c>
-      <c r="F87" t="s">
-        <v>8</v>
+      <c r="F87" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B88" t="n">
         <v>4028.0</v>
@@ -1908,13 +2136,16 @@
       <c r="E88" t="n">
         <v>0.0</v>
       </c>
-      <c r="F88" t="s">
-        <v>9</v>
+      <c r="F88" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B89" t="n">
         <v>5597.0</v>
@@ -1928,13 +2159,16 @@
       <c r="E89" t="n">
         <v>0.0</v>
       </c>
-      <c r="F89" t="s">
-        <v>10</v>
+      <c r="F89" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B90" t="n">
         <v>8279.0</v>
@@ -1948,13 +2182,16 @@
       <c r="E90" t="n">
         <v>0.0</v>
       </c>
-      <c r="F90" t="s">
-        <v>11</v>
+      <c r="F90" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B91" t="n">
         <v>11299.0</v>
@@ -1968,13 +2205,16 @@
       <c r="E91" t="n">
         <v>47.061</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
+      <c r="F91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
         <v>14038.0</v>
@@ -1988,13 +2228,16 @@
       <c r="E92" t="n">
         <v>104.58</v>
       </c>
-      <c r="F92" t="s">
-        <v>13</v>
+      <c r="F92" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B93" t="n">
         <v>16199.0</v>
@@ -2008,13 +2251,16 @@
       <c r="E93" t="n">
         <v>174.3</v>
       </c>
-      <c r="F93" t="s">
-        <v>14</v>
+      <c r="F93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B94" t="n">
         <v>19789.0</v>
@@ -2028,13 +2274,16 @@
       <c r="E94" t="n">
         <v>313.74</v>
       </c>
-      <c r="F94" t="s">
-        <v>15</v>
+      <c r="F94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
         <v>21498.0</v>
@@ -2048,13 +2297,16 @@
       <c r="E95" t="n">
         <v>329.427</v>
       </c>
-      <c r="F95" t="s">
-        <v>16</v>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
         <v>18898.0</v>
@@ -2068,13 +2320,16 @@
       <c r="E96" t="n">
         <v>311.997</v>
       </c>
-      <c r="F96" t="s">
-        <v>17</v>
+      <c r="F96" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B97" t="n">
         <v>15074.0</v>
@@ -2088,13 +2343,16 @@
       <c r="E97" t="n">
         <v>259.707</v>
       </c>
-      <c r="F97" t="s">
-        <v>18</v>
+      <c r="F97" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
         <v>18128.0</v>
@@ -2108,13 +2366,16 @@
       <c r="E98" t="n">
         <v>154.7208</v>
       </c>
-      <c r="F98" t="s">
-        <v>7</v>
+      <c r="F98" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B99" t="n">
         <v>15520.0</v>
@@ -2128,13 +2389,16 @@
       <c r="E99" t="n">
         <v>69.2172</v>
       </c>
-      <c r="F99" t="s">
-        <v>8</v>
+      <c r="F99" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B100" t="n">
         <v>6123.0</v>
@@ -2148,13 +2412,16 @@
       <c r="E100" t="n">
         <v>0.0</v>
       </c>
-      <c r="F100" t="s">
-        <v>9</v>
+      <c r="F100" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
         <v>9216.0</v>
@@ -2168,13 +2435,16 @@
       <c r="E101" t="n">
         <v>0.0</v>
       </c>
-      <c r="F101" t="s">
-        <v>10</v>
+      <c r="F101" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B102" t="n">
         <v>13016.0</v>
@@ -2188,13 +2458,16 @@
       <c r="E102" t="n">
         <v>0.0</v>
       </c>
-      <c r="F102" t="s">
-        <v>11</v>
+      <c r="F102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>15823.0</v>
@@ -2208,13 +2481,16 @@
       <c r="E103" t="n">
         <v>61.074</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
+      <c r="F103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B104" t="n">
         <v>19024.0</v>
@@ -2228,13 +2504,16 @@
       <c r="E104" t="n">
         <v>132.327</v>
       </c>
-      <c r="F104" t="s">
-        <v>13</v>
+      <c r="F104" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B105" t="n">
         <v>21526.0</v>
@@ -2248,13 +2527,16 @@
       <c r="E105" t="n">
         <v>234.11700000000002</v>
       </c>
-      <c r="F105" t="s">
-        <v>14</v>
+      <c r="F105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B106" t="n">
         <v>25126.0</v>
@@ -2268,13 +2550,16 @@
       <c r="E106" t="n">
         <v>407.16</v>
       </c>
-      <c r="F106" t="s">
-        <v>15</v>
+      <c r="F106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B107" t="n">
         <v>25925.0</v>
@@ -2288,13 +2573,16 @@
       <c r="E107" t="n">
         <v>356.265</v>
       </c>
-      <c r="F107" t="s">
-        <v>16</v>
+      <c r="F107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B108" t="n">
         <v>23210.0</v>
@@ -2308,13 +2596,16 @@
       <c r="E108" t="n">
         <v>335.907</v>
       </c>
-      <c r="F108" t="s">
-        <v>17</v>
+      <c r="F108" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
         <v>20629.0</v>
@@ -2328,13 +2619,16 @@
       <c r="E109" t="n">
         <v>285.012</v>
       </c>
-      <c r="F109" t="s">
-        <v>18</v>
+      <c r="F109" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B110" t="n">
         <v>12396.0</v>
@@ -2348,13 +2642,16 @@
       <c r="E110" t="n">
         <v>96.82400000000001</v>
       </c>
-      <c r="F110" t="s">
-        <v>7</v>
+      <c r="F110" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>10026.0</v>
@@ -2368,13 +2665,16 @@
       <c r="E111" t="n">
         <v>55.1152</v>
       </c>
-      <c r="F111" t="s">
-        <v>8</v>
+      <c r="F111" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B112" t="n">
         <v>5365.0</v>
@@ -2388,13 +2688,16 @@
       <c r="E112" t="n">
         <v>0.0</v>
       </c>
-      <c r="F112" t="s">
-        <v>9</v>
+      <c r="F112" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B113" t="n">
         <v>6765.0</v>
@@ -2408,13 +2711,16 @@
       <c r="E113" t="n">
         <v>0.0</v>
       </c>
-      <c r="F113" t="s">
-        <v>10</v>
+      <c r="F113" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B114" t="n">
         <v>9365.0</v>
@@ -2428,13 +2734,16 @@
       <c r="E114" t="n">
         <v>0.0</v>
       </c>
-      <c r="F114" t="s">
-        <v>11</v>
+      <c r="F114" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
         <v>12028.0</v>
@@ -2448,13 +2757,16 @@
       <c r="E115" t="n">
         <v>41.41088</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
+      <c r="F115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B116" t="n">
         <v>13836.0</v>
@@ -2468,13 +2780,16 @@
       <c r="E116" t="n">
         <v>104.27200000000002</v>
       </c>
-      <c r="F116" t="s">
-        <v>13</v>
+      <c r="F116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B117" t="n">
         <v>16821.0</v>
@@ -2488,13 +2803,16 @@
       <c r="E117" t="n">
         <v>171.30400000000003</v>
       </c>
-      <c r="F117" t="s">
-        <v>14</v>
+      <c r="F117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B118" t="n">
         <v>20485.0</v>
@@ -2508,13 +2826,16 @@
       <c r="E118" t="n">
         <v>283.024</v>
       </c>
-      <c r="F118" t="s">
-        <v>15</v>
+      <c r="F118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B119" t="n">
         <v>21603.0</v>
@@ -2528,13 +2849,16 @@
       <c r="E119" t="n">
         <v>275.576</v>
       </c>
-      <c r="F119" t="s">
-        <v>16</v>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B120" t="n">
         <v>19503.0</v>
@@ -2548,13 +2872,16 @@
       <c r="E120" t="n">
         <v>260.68</v>
       </c>
-      <c r="F120" t="s">
-        <v>17</v>
+      <c r="F120" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B121" t="n">
         <v>15249.0</v>
@@ -2568,13 +2895,16 @@
       <c r="E121" t="n">
         <v>201.39392</v>
       </c>
-      <c r="F121" t="s">
-        <v>18</v>
+      <c r="F121" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B122" t="n">
         <v>12089.0</v>
@@ -2588,13 +2918,16 @@
       <c r="E122" t="n">
         <v>66.8736</v>
       </c>
-      <c r="F122" t="s">
-        <v>7</v>
+      <c r="F122" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B123" t="n">
         <v>9652.0</v>
@@ -2608,13 +2941,16 @@
       <c r="E123" t="n">
         <v>37.152</v>
       </c>
-      <c r="F123" t="s">
-        <v>8</v>
+      <c r="F123" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B124" t="n">
         <v>2889.0</v>
@@ -2628,13 +2964,16 @@
       <c r="E124" t="n">
         <v>0.0</v>
       </c>
-      <c r="F124" t="s">
-        <v>9</v>
+      <c r="F124" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B125" t="n">
         <v>4423.0</v>
@@ -2648,13 +2987,16 @@
       <c r="E125" t="n">
         <v>0.0</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
+      <c r="F125" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B126" t="n">
         <v>7162.0</v>
@@ -2668,13 +3010,16 @@
       <c r="E126" t="n">
         <v>0.0</v>
       </c>
-      <c r="F126" t="s">
-        <v>11</v>
+      <c r="F126" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B127" t="n">
         <v>10256.0</v>
@@ -2688,13 +3033,16 @@
       <c r="E127" t="n">
         <v>27.863999999999997</v>
       </c>
-      <c r="F127" t="s">
-        <v>12</v>
+      <c r="F127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B128" t="n">
         <v>12859.0</v>
@@ -2708,13 +3056,16 @@
       <c r="E128" t="n">
         <v>74.304</v>
       </c>
-      <c r="F128" t="s">
-        <v>13</v>
+      <c r="F128" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B129" t="n">
         <v>15123.0</v>
@@ -2728,13 +3079,16 @@
       <c r="E129" t="n">
         <v>83.592</v>
       </c>
-      <c r="F129" t="s">
-        <v>14</v>
+      <c r="F129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B130" t="n">
         <v>18636.0</v>
@@ -2748,13 +3102,16 @@
       <c r="E130" t="n">
         <v>167.184</v>
       </c>
-      <c r="F130" t="s">
-        <v>15</v>
+      <c r="F130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B131" t="n">
         <v>19256.0</v>
@@ -2768,13 +3125,16 @@
       <c r="E131" t="n">
         <v>175.54319999999998</v>
       </c>
-      <c r="F131" t="s">
-        <v>16</v>
+      <c r="F131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B132" t="n">
         <v>17396.0</v>
@@ -2788,13 +3148,16 @@
       <c r="E132" t="n">
         <v>166.25519999999997</v>
       </c>
-      <c r="F132" t="s">
-        <v>17</v>
+      <c r="F132" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B133" t="n">
         <v>15514.0</v>
@@ -2808,13 +3171,16 @@
       <c r="E133" t="n">
         <v>130.032</v>
       </c>
-      <c r="F133" t="s">
-        <v>18</v>
+      <c r="F133" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B134" t="n">
         <v>18596.0</v>
@@ -2828,13 +3194,16 @@
       <c r="E134" t="n">
         <v>106.58844</v>
       </c>
-      <c r="F134" t="s">
-        <v>7</v>
+      <c r="F134" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B135" t="n">
         <v>16267.0</v>
@@ -2848,13 +3217,16 @@
       <c r="E135" t="n">
         <v>84.9618</v>
       </c>
-      <c r="F135" t="s">
-        <v>8</v>
+      <c r="F135" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B136" t="n">
         <v>7896.0</v>
@@ -2868,13 +3240,16 @@
       <c r="E136" t="n">
         <v>0.0</v>
       </c>
-      <c r="F136" t="s">
-        <v>9</v>
+      <c r="F136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B137" t="n">
         <v>10298.0</v>
@@ -2888,13 +3263,16 @@
       <c r="E137" t="n">
         <v>0.0</v>
       </c>
-      <c r="F137" t="s">
-        <v>10</v>
+      <c r="F137" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B138" t="n">
         <v>15002.0</v>
@@ -2908,13 +3286,16 @@
       <c r="E138" t="n">
         <v>0.0</v>
       </c>
-      <c r="F138" t="s">
-        <v>11</v>
+      <c r="F138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B139" t="n">
         <v>16493.0</v>
@@ -2928,13 +3309,16 @@
       <c r="E139" t="n">
         <v>43.253280000000004</v>
       </c>
-      <c r="F139" t="s">
-        <v>12</v>
+      <c r="F139" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B140" t="n">
         <v>20569.0</v>
@@ -2948,13 +3332,16 @@
       <c r="E140" t="n">
         <v>108.13320000000002</v>
       </c>
-      <c r="F140" t="s">
-        <v>13</v>
+      <c r="F140" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B141" t="n">
         <v>22569.0</v>
@@ -2968,13 +3355,16 @@
       <c r="E141" t="n">
         <v>169.9236</v>
       </c>
-      <c r="F141" t="s">
-        <v>14</v>
+      <c r="F141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B142" t="n">
         <v>26998.0</v>
@@ -2988,13 +3378,16 @@
       <c r="E142" t="n">
         <v>293.5044</v>
       </c>
-      <c r="F142" t="s">
-        <v>15</v>
+      <c r="F142" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B143" t="n">
         <v>26832.0</v>
@@ -3008,13 +3401,16 @@
       <c r="E143" t="n">
         <v>278.0568</v>
       </c>
-      <c r="F143" t="s">
-        <v>16</v>
+      <c r="F143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B144" t="n">
         <v>23985.0</v>
@@ -3028,13 +3424,16 @@
       <c r="E144" t="n">
         <v>247.1616</v>
       </c>
-      <c r="F144" t="s">
-        <v>17</v>
+      <c r="F144" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2015.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B145" t="n">
         <v>21231.0</v>
@@ -3048,8 +3447,11 @@
       <c r="E145" t="n">
         <v>213.17688</v>
       </c>
-      <c r="F145" t="s">
-        <v>18</v>
+      <c r="F145" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2015.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Combined_Docks_Consumption.xlsx
+++ b/output/Combined_Docks_Consumption.xlsx
@@ -415,7 +415,7 @@
         <v>11.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="14">
@@ -691,7 +691,7 @@
         <v>11.0</v>
       </c>
       <c r="G25" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>11.0</v>
       </c>
       <c r="G37" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,7 +1243,7 @@
         <v>11.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="50">
@@ -1519,7 +1519,7 @@
         <v>11.0</v>
       </c>
       <c r="G61" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="62">
@@ -1795,7 +1795,7 @@
         <v>11.0</v>
       </c>
       <c r="G73" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="74">
@@ -2071,7 +2071,7 @@
         <v>11.0</v>
       </c>
       <c r="G85" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="86">
@@ -2347,7 +2347,7 @@
         <v>11.0</v>
       </c>
       <c r="G97" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="98">
@@ -2623,7 +2623,7 @@
         <v>11.0</v>
       </c>
       <c r="G109" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="110">
@@ -2899,7 +2899,7 @@
         <v>11.0</v>
       </c>
       <c r="G121" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="122">
@@ -3175,7 +3175,7 @@
         <v>11.0</v>
       </c>
       <c r="G133" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="134">
@@ -3451,7 +3451,7 @@
         <v>11.0</v>
       </c>
       <c r="G145" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
   </sheetData>
